--- a/Flight Payload/Perovskite Performance/P2_Assembled/X016_PreSatellite/curve_0.0_0_Reverse.xlsx
+++ b/Flight Payload/Perovskite Performance/P2_Assembled/X016_PreSatellite/curve_0.0_0_Reverse.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Big-Red-Sat-1\Flight Payload\Perovskite Performance\P2_Assembled\X016_PreSatellite\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CD2F39-BC3E-41DB-9983-CCD89213C126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,11 +99,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +113,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,28 +159,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -226,6 +263,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -260,9 +298,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,27 +474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B8:B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45220.63103759233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>45220.631037592328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -463,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -471,15 +512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,63 +536,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003213675213675214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <f>MAX(Data!$B$2:$B$257)</f>
+        <v>1.02034188034188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <f>MAX(Data!$C$2:$C$257)</f>
+        <v>1.6934808111278701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.8435897435897436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.528071057482822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.289065071568842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <f>MAX(Data!$E$2:$E$257)</f>
+        <v>1.2890650715688421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>12890650.71568842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="3">
+        <f>(B12/((B8)*B9))</f>
+        <v>0.74601721296465862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.2222525985463521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="3">
+        <f>(B12/B5)/B6</f>
+        <v>0.22225259854635207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,14 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
@@ -586,279 +626,279 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C2">
-        <v>1.69348081112787</v>
+        <v>1.6934808111278701</v>
       </c>
       <c r="D2">
-        <v>29.19794501944603</v>
+        <v>29.197945019446031</v>
       </c>
       <c r="E2">
-        <v>0.005442297307556233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>5.4422973075562327E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.003213675213675214</v>
+        <v>3.2136752136752138E-3</v>
       </c>
       <c r="C3">
-        <v>1.69348081112787</v>
+        <v>1.6934808111278701</v>
       </c>
       <c r="D3">
-        <v>29.19794501944603</v>
+        <v>29.197945019446031</v>
       </c>
       <c r="E3">
-        <v>0.005442297307556233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>5.4422973075562327E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.006427350427350428</v>
+        <v>6.4273504273504277E-3</v>
       </c>
       <c r="C4">
-        <v>1.69348081112787</v>
+        <v>1.6934808111278701</v>
       </c>
       <c r="D4">
-        <v>29.19794501944603</v>
+        <v>29.197945019446031</v>
       </c>
       <c r="E4">
-        <v>0.01088459461511247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1.0884594615112471E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009641025641025642</v>
+        <v>9.6410256410256415E-3</v>
       </c>
       <c r="C5">
-        <v>1.69348081112787</v>
+        <v>1.6934808111278701</v>
       </c>
       <c r="D5">
-        <v>29.19794501944603</v>
+        <v>29.197945019446031</v>
       </c>
       <c r="E5">
-        <v>0.0163268919226687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.6326891922668701E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01446153846153846</v>
+        <v>1.446153846153846E-2</v>
       </c>
       <c r="C6">
         <v>1.685604156192392</v>
       </c>
       <c r="D6">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E6">
-        <v>0.02437642933570536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.4376429335705361E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01928205128205128</v>
+        <v>1.928205128205128E-2</v>
       </c>
       <c r="C7">
-        <v>1.69348081112787</v>
+        <v>1.6934808111278701</v>
       </c>
       <c r="D7">
-        <v>29.19794501944603</v>
+        <v>29.197945019446031</v>
       </c>
       <c r="E7">
-        <v>0.0326537838453374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.2653783845337403E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0241025641025641</v>
+        <v>2.41025641025641E-2</v>
       </c>
       <c r="C8">
         <v>1.685604156192392</v>
       </c>
       <c r="D8">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E8">
-        <v>0.0406273822261756</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>4.0627382226175603E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03052991452991453</v>
+        <v>3.0529914529914531E-2</v>
       </c>
       <c r="C9">
         <v>1.685604156192392</v>
       </c>
       <c r="D9">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E9">
-        <v>0.05146135081982242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>5.1461350819822421E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.04017094017094017</v>
+        <v>4.0170940170940167E-2</v>
       </c>
       <c r="C10">
         <v>1.685604156192392</v>
       </c>
       <c r="D10">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E10">
-        <v>0.06771230371029267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>6.7712303710292673E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.04820512820512821</v>
+        <v>4.8205128205128213E-2</v>
       </c>
       <c r="C11">
         <v>1.685604156192392</v>
       </c>
       <c r="D11">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E11">
-        <v>0.08125476445235119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>8.1254764452351191E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.05784615384615385</v>
+        <v>5.7846153846153853E-2</v>
       </c>
       <c r="C12">
-        <v>1.69348081112787</v>
+        <v>1.6934808111278701</v>
       </c>
       <c r="D12">
-        <v>29.19794501944603</v>
+        <v>29.197945019446031</v>
       </c>
       <c r="E12">
-        <v>0.09796135153601218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>9.7961351536012181E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.06748717948717949</v>
+        <v>6.7487179487179486E-2</v>
       </c>
       <c r="C13">
         <v>1.685604156192392</v>
       </c>
       <c r="D13">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E13">
         <v>0.1137566702332917</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.07552136752136752</v>
+        <v>7.5521367521367525E-2</v>
       </c>
       <c r="C14">
         <v>1.685604156192392</v>
       </c>
       <c r="D14">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E14">
         <v>0.1272991309753502</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.08355555555555556</v>
+        <v>8.3555555555555563E-2</v>
       </c>
       <c r="C15">
         <v>1.685604156192392</v>
       </c>
       <c r="D15">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E15">
-        <v>0.1408415917174088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.14084159171740879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.09158974358974359</v>
+        <v>9.1589743589743589E-2</v>
       </c>
       <c r="C16">
         <v>1.685604156192392</v>
       </c>
       <c r="D16">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E16">
-        <v>0.1543840524594673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.15438405245946729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1012307692307692</v>
+        <v>0.10123076923076919</v>
       </c>
       <c r="C17">
         <v>1.685604156192392</v>
       </c>
       <c r="D17">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E17">
         <v>0.1706350053499375</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -869,81 +909,81 @@
         <v>1.685604156192392</v>
       </c>
       <c r="D18">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E18">
-        <v>0.1977199268340546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.19771992683405459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1317606837606838</v>
+        <v>0.13176068376068381</v>
       </c>
       <c r="C19">
         <v>1.685604156192392</v>
       </c>
       <c r="D19">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E19">
-        <v>0.22209635616976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.22209635616976001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1446153846153846</v>
+        <v>0.14461538461538459</v>
       </c>
       <c r="C20">
         <v>1.685604156192392</v>
       </c>
       <c r="D20">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E20">
         <v>0.2437642933570536</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1574700854700855</v>
+        <v>0.15747008547008551</v>
       </c>
       <c r="C21">
         <v>1.685604156192392</v>
       </c>
       <c r="D21">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E21">
-        <v>0.2654322305443472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.26543223054434723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1703247863247863</v>
+        <v>0.17032478632478629</v>
       </c>
       <c r="C22">
         <v>1.685604156192392</v>
       </c>
       <c r="D22">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E22">
-        <v>0.2871001677316409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.28710016773164088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -954,30 +994,30 @@
         <v>1.685604156192392</v>
       </c>
       <c r="D23">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E23">
-        <v>0.3060596127705228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.30605961277052279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1912136752136752</v>
+        <v>0.19121367521367519</v>
       </c>
       <c r="C24">
         <v>1.685604156192392</v>
       </c>
       <c r="D24">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E24">
-        <v>0.3223105656609931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.32231056566099309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -988,353 +1028,353 @@
         <v>1.685604156192392</v>
       </c>
       <c r="D25">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E25">
         <v>0.341270010699875</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2153162393162393</v>
+        <v>0.21531623931623931</v>
       </c>
       <c r="C26">
         <v>1.685604156192392</v>
       </c>
       <c r="D26">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E26">
-        <v>0.3629379478871687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.36293794788716871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2265641025641026</v>
+        <v>0.22656410256410259</v>
       </c>
       <c r="C27">
         <v>1.685604156192392</v>
       </c>
       <c r="D27">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E27">
-        <v>0.3818973929260506</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0.38189739292605063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2378119658119658</v>
+        <v>0.23781196581196579</v>
       </c>
       <c r="C28">
         <v>1.685604156192392</v>
       </c>
       <c r="D28">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E28">
-        <v>0.4008568379649325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.40085683796493249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.249059829059829</v>
+        <v>0.24905982905982901</v>
       </c>
       <c r="C29">
         <v>1.685604156192392</v>
       </c>
       <c r="D29">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E29">
-        <v>0.4198162830038145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.41981628300381452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2587008547008547</v>
+        <v>0.25870085470085469</v>
       </c>
       <c r="C30">
         <v>1.685604156192392</v>
       </c>
       <c r="D30">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E30">
-        <v>0.4360672358942848</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.43606723589428481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.2683418803418803</v>
+        <v>0.26834188034188028</v>
       </c>
       <c r="C31">
         <v>1.685604156192392</v>
       </c>
       <c r="D31">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E31">
-        <v>0.452318188784755</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.45231818878475499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.277982905982906</v>
+        <v>0.27798290598290598</v>
       </c>
       <c r="C32">
         <v>1.685604156192392</v>
       </c>
       <c r="D32">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E32">
-        <v>0.4685691416752252</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.46856914167522518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.2876239316239316</v>
+        <v>0.28762393162393157</v>
       </c>
       <c r="C33">
         <v>1.685604156192392</v>
       </c>
       <c r="D33">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E33">
-        <v>0.4848200945656955</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.48482009456569553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.3101196581196581</v>
+        <v>0.31011965811965808</v>
       </c>
       <c r="C34">
         <v>1.685604156192392</v>
       </c>
       <c r="D34">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E34">
-        <v>0.5227389846434594</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.52273898464345936</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.3326153846153846</v>
+        <v>0.33261538461538459</v>
       </c>
       <c r="C35">
         <v>1.685604156192392</v>
       </c>
       <c r="D35">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E35">
-        <v>0.5606578747212232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.56065787472122319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.3502905982905983</v>
+        <v>0.35029059829059828</v>
       </c>
       <c r="C36">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D36">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E36">
-        <v>0.5876921701838744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.58769217018387443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.367965811965812</v>
+        <v>0.36796581196581202</v>
       </c>
       <c r="C37">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D37">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E37">
-        <v>0.6173463622573727</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.61734636225737272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.384034188034188</v>
+        <v>0.38403418803418798</v>
       </c>
       <c r="C38">
         <v>1.685604156192392</v>
       </c>
       <c r="D38">
-        <v>29.06214062400676</v>
+        <v>29.062140624006759</v>
       </c>
       <c r="E38">
-        <v>0.6473296234703979</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.64732962347039791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4001025641025641</v>
+        <v>0.40010256410256412</v>
       </c>
       <c r="C39">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D39">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E39">
-        <v>0.6712630751182787</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.67126307511827865</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4129572649572649</v>
+        <v>0.41295726495726492</v>
       </c>
       <c r="C40">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D40">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E40">
-        <v>0.692829760262641</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.69282976026264098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4258119658119658</v>
+        <v>0.42581196581196579</v>
       </c>
       <c r="C41">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D41">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E41">
-        <v>0.7143964454070034</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.71439644540700342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4402735042735043</v>
+        <v>0.44027350427350431</v>
       </c>
       <c r="C42">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D42">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E42">
-        <v>0.7386589661944111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.73865896619441107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.4547350427350428</v>
+        <v>0.45473504273504278</v>
       </c>
       <c r="C43">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D43">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E43">
-        <v>0.7629214869818188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.76292148698181883</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4675897435897436</v>
+        <v>0.46758974358974359</v>
       </c>
       <c r="C44">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D44">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E44">
-        <v>0.784488172126181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.78448817212618105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.4788376068376068</v>
+        <v>0.47883760683760679</v>
       </c>
       <c r="C45">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D45">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E45">
-        <v>0.8033590216274982</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.80335902162749817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1342,16 +1382,16 @@
         <v>0.4900854700854701</v>
       </c>
       <c r="C46">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D46">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E46">
-        <v>0.8222298711288153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.82222987112881529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1359,67 +1399,67 @@
         <v>0.5013333333333333</v>
       </c>
       <c r="C47">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D47">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E47">
-        <v>0.8411007206301322</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.84110072063013219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5125811965811966</v>
+        <v>0.51258119658119661</v>
       </c>
       <c r="C48">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D48">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E48">
-        <v>0.8599715701314494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.85997157013144943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5238290598290598</v>
+        <v>0.52382905982905981</v>
       </c>
       <c r="C49">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D49">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E49">
-        <v>0.8788424196327664</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.87884241963276644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.5398974358974359</v>
+        <v>0.53989743589743588</v>
       </c>
       <c r="C50">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D50">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E50">
         <v>0.9058007760632194</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1427,50 +1467,50 @@
         <v>0.5543589743589743</v>
       </c>
       <c r="C51">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D51">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E51">
-        <v>0.9300632968506269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.93006329685062694</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5688205128205128</v>
+        <v>0.56882051282051282</v>
       </c>
       <c r="C52">
-        <v>1.677727501256913</v>
+        <v>1.6777275012569131</v>
       </c>
       <c r="D52">
-        <v>28.92633622856746</v>
+        <v>28.926336228567461</v>
       </c>
       <c r="E52">
         <v>0.9543258176380347</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5832820512820512</v>
+        <v>0.58328205128205124</v>
       </c>
       <c r="C53">
         <v>1.669850846321435</v>
       </c>
       <c r="D53">
-        <v>28.79053183312818</v>
+        <v>28.790531833128181</v>
       </c>
       <c r="E53">
-        <v>0.9739940269774358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.97399402697743576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1481,361 +1521,361 @@
         <v>1.669850846321435</v>
       </c>
       <c r="D54">
-        <v>28.79053183312818</v>
+        <v>28.790531833128181</v>
       </c>
       <c r="E54">
-        <v>0.9954594600788669</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.99545946007886688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6073846153846154</v>
+        <v>0.60738461538461541</v>
       </c>
       <c r="C55">
         <v>1.669850846321435</v>
       </c>
       <c r="D55">
-        <v>28.79053183312818</v>
+        <v>28.790531833128181</v>
       </c>
       <c r="E55">
         <v>1.014241714042619</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.6170256410256411</v>
+        <v>0.61702564102564106</v>
       </c>
       <c r="C56">
         <v>1.669850846321435</v>
       </c>
       <c r="D56">
-        <v>28.79053183312818</v>
+        <v>28.790531833128181</v>
       </c>
       <c r="E56">
-        <v>1.030340788868693</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>1.0303407888686931</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6282735042735044</v>
+        <v>0.62827350427350437</v>
       </c>
       <c r="C57">
         <v>1.669850846321435</v>
       </c>
       <c r="D57">
-        <v>28.79053183312818</v>
+        <v>28.790531833128181</v>
       </c>
       <c r="E57">
         <v>1.049123042832445</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6395213675213676</v>
+        <v>0.63952136752136757</v>
       </c>
       <c r="C58">
         <v>1.669850846321435</v>
       </c>
       <c r="D58">
-        <v>28.79053183312818</v>
+        <v>28.790531833128181</v>
       </c>
       <c r="E58">
-        <v>1.067905296796197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>1.0679052967961971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6523760683760684</v>
+        <v>0.65237606837606843</v>
       </c>
       <c r="C59">
         <v>1.661974191385956</v>
       </c>
       <c r="D59">
-        <v>28.6547274376889</v>
+        <v>28.654727437688901</v>
       </c>
       <c r="E59">
         <v>1.084232188718866</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6636239316239316</v>
+        <v>0.66362393162393163</v>
       </c>
       <c r="C60">
         <v>1.661974191385956</v>
       </c>
       <c r="D60">
-        <v>28.6547274376889</v>
+        <v>28.654727437688901</v>
       </c>
       <c r="E60">
-        <v>1.102925847145053</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>1.1029258471450529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6732649572649573</v>
+        <v>0.67326495726495728</v>
       </c>
       <c r="C61">
         <v>1.661974191385956</v>
       </c>
       <c r="D61">
-        <v>28.6547274376889</v>
+        <v>28.654727437688901</v>
       </c>
       <c r="E61">
-        <v>1.118948982938928</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>1.1189489829389281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6845128205128205</v>
+        <v>0.68451282051282047</v>
       </c>
       <c r="C62">
         <v>1.661974191385956</v>
       </c>
       <c r="D62">
-        <v>28.6547274376889</v>
+        <v>28.654727437688901</v>
       </c>
       <c r="E62">
-        <v>1.137642641365115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>1.1376426413651151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6941538461538461</v>
+        <v>0.69415384615384612</v>
       </c>
       <c r="C63">
         <v>1.654097536450478</v>
       </c>
       <c r="D63">
-        <v>28.51892304224961</v>
+        <v>28.518923042249611</v>
       </c>
       <c r="E63">
-        <v>1.148198166840701</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>1.1481981668407011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.7037948717948718</v>
+        <v>0.70379487179487177</v>
       </c>
       <c r="C64">
         <v>1.654097536450478</v>
       </c>
       <c r="D64">
-        <v>28.51892304224961</v>
+        <v>28.518923042249611</v>
       </c>
       <c r="E64">
-        <v>1.164145363602377</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>1.1641453636023771</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.7118290598290599</v>
+        <v>0.71182905982905986</v>
       </c>
       <c r="C65">
         <v>1.654097536450478</v>
       </c>
       <c r="D65">
-        <v>28.51892304224961</v>
+        <v>28.518923042249611</v>
       </c>
       <c r="E65">
         <v>1.177434694237107</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.7246837606837606</v>
+        <v>0.72468376068376061</v>
       </c>
       <c r="C66">
         <v>1.646220881514999</v>
       </c>
       <c r="D66">
-        <v>28.38311864681033</v>
+        <v>28.383118646810331</v>
       </c>
       <c r="E66">
         <v>1.192989539332425</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.7375384615384616</v>
+        <v>0.73753846153846159</v>
       </c>
       <c r="C67">
-        <v>1.638344226579521</v>
+        <v>1.6383442265795209</v>
       </c>
       <c r="D67">
-        <v>28.24731425137105</v>
+        <v>28.247314251371051</v>
       </c>
       <c r="E67">
-        <v>1.208341880341881</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>1.2083418803418811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.7487863247863248</v>
+        <v>0.74878632478632479</v>
       </c>
       <c r="C68">
         <v>1.630467571644042</v>
       </c>
       <c r="D68">
-        <v>28.11150985593176</v>
+        <v>28.111509855931761</v>
       </c>
       <c r="E68">
-        <v>1.220871820654626</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>1.2208718206546261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7584273504273504</v>
+        <v>0.75842735042735043</v>
       </c>
       <c r="C69">
-        <v>1.622590916708564</v>
+        <v>1.6225909167085639</v>
       </c>
       <c r="D69">
-        <v>27.97570546049248</v>
+        <v>27.975705460492481</v>
       </c>
       <c r="E69">
         <v>1.230617329786762</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.7680683760683761</v>
+        <v>0.76806837606837608</v>
       </c>
       <c r="C70">
         <v>1.614714261773085</v>
       </c>
       <c r="D70">
-        <v>27.83990106505319</v>
+        <v>27.839901065053191</v>
       </c>
       <c r="E70">
         <v>1.2402109608545</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.7777094017094017</v>
+        <v>0.77770940170940173</v>
       </c>
       <c r="C71">
-        <v>1.606837606837607</v>
+        <v>1.6068376068376069</v>
       </c>
       <c r="D71">
-        <v>27.70409666961391</v>
+        <v>27.704096669613911</v>
       </c>
       <c r="E71">
-        <v>1.249652713857842</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>1.2496527138578419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.7857435897435897</v>
+        <v>0.78574358974358971</v>
       </c>
       <c r="C72">
-        <v>1.598960951902128</v>
+        <v>1.5989609519021279</v>
       </c>
       <c r="D72">
-        <v>27.56829227417463</v>
+        <v>27.568292274174631</v>
       </c>
       <c r="E72">
-        <v>1.256373318207406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1.2563733182074059</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.7921709401709401</v>
+        <v>0.79217094017094014</v>
       </c>
       <c r="C73">
-        <v>1.59108429696665</v>
+        <v>1.5910842969666501</v>
       </c>
       <c r="D73">
-        <v>27.43248787873534</v>
+        <v>27.432487878735341</v>
       </c>
       <c r="E73">
-        <v>1.26041074341929</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>1.2604107434192899</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.8002051282051282</v>
+        <v>0.80020512820512824</v>
       </c>
       <c r="C74">
-        <v>1.583207642031171</v>
+        <v>1.5832076420311709</v>
       </c>
       <c r="D74">
         <v>27.29668348329605</v>
       </c>
       <c r="E74">
-        <v>1.266890874166892</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>1.2668908741668921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8082393162393163</v>
+        <v>0.80823931623931633</v>
       </c>
       <c r="C75">
-        <v>1.575330987095693</v>
+        <v>1.5753309870956931</v>
       </c>
       <c r="D75">
         <v>27.16087908785677</v>
@@ -1844,12 +1884,12 @@
         <v>1.27324443986083</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.8146666666666667</v>
+        <v>0.81466666666666665</v>
       </c>
       <c r="C76">
         <v>1.567454332160215</v>
@@ -1858,32 +1898,32 @@
         <v>27.02507469241749</v>
       </c>
       <c r="E76">
-        <v>1.276952795933188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>1.2769527959331879</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.8210940170940171</v>
+        <v>0.82109401709401708</v>
       </c>
       <c r="C77">
-        <v>1.559577677224736</v>
+        <v>1.5595776772247361</v>
       </c>
       <c r="D77">
         <v>26.8892702969782</v>
       </c>
       <c r="E77">
-        <v>1.280559899962615</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>1.2805598999626151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.8275213675213675</v>
+        <v>0.82752136752136751</v>
       </c>
       <c r="C78">
         <v>1.551701022289258</v>
@@ -1892,15 +1932,15 @@
         <v>26.75346590153892</v>
       </c>
       <c r="E78">
-        <v>1.28406575194911</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1.2840657519491101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.8323418803418804</v>
+        <v>0.83234188034188039</v>
       </c>
       <c r="C79">
         <v>1.535947712418301</v>
@@ -1912,12 +1952,12 @@
         <v>1.278433607061058</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8371623931623932</v>
+        <v>0.83716239316239316</v>
       </c>
       <c r="C80">
         <v>1.528071057482822</v>
@@ -1926,15 +1966,15 @@
         <v>26.34605271522107</v>
       </c>
       <c r="E80">
-        <v>1.279243623404508</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>1.2792436234045079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.8435897435897436</v>
+        <v>0.84358974358974359</v>
       </c>
       <c r="C81">
         <v>1.528071057482822</v>
@@ -1943,66 +1983,66 @@
         <v>26.34605271522107</v>
       </c>
       <c r="E81">
-        <v>1.289065071568842</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>1.2890650715688421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.8484102564102565</v>
+        <v>0.84841025641025647</v>
       </c>
       <c r="C82">
-        <v>1.504441092676387</v>
+        <v>1.5044410926763869</v>
       </c>
       <c r="D82">
         <v>25.93863952890322</v>
       </c>
       <c r="E82">
-        <v>1.2763832531917</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>1.2763832531917001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.8532307692307692</v>
+        <v>0.85323076923076924</v>
       </c>
       <c r="C83">
-        <v>1.48868778280543</v>
+        <v>1.4886877828054299</v>
       </c>
       <c r="D83">
         <v>25.66703073802465</v>
       </c>
       <c r="E83">
-        <v>1.270194222067525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1.2701942220675251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.8596581196581197</v>
+        <v>0.85965811965811967</v>
       </c>
       <c r="C84">
-        <v>1.472934472934473</v>
+        <v>1.4729344729344731</v>
       </c>
       <c r="D84">
         <v>25.39542194714608</v>
       </c>
       <c r="E84">
-        <v>1.266220079382472</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>1.2662200793824721</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8644786324786324</v>
+        <v>0.86447863247863244</v>
       </c>
       <c r="C85">
         <v>1.465057817998995</v>
@@ -2014,12 +2054,12 @@
         <v>1.2665111790059</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.8692991452991453</v>
+        <v>0.86929914529914531</v>
       </c>
       <c r="C86">
         <v>1.449304508128038</v>
@@ -2028,49 +2068,49 @@
         <v>24.98800876082824</v>
       </c>
       <c r="E86">
-        <v>1.259879170193901</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>1.2598791701939009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8725128205128205</v>
+        <v>0.87251282051282053</v>
       </c>
       <c r="C87">
         <v>1.433551198257081</v>
       </c>
       <c r="D87">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E87">
-        <v>1.250791799340819</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>1.2507917993408191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8757264957264957</v>
+        <v>0.87572649572649575</v>
       </c>
       <c r="C88">
         <v>1.433551198257081</v>
       </c>
       <c r="D88">
-        <v>24.71639996994966</v>
+        <v>24.716399969949659</v>
       </c>
       <c r="E88">
         <v>1.255398767294192</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.878940170940171</v>
+        <v>0.87894017094017096</v>
       </c>
       <c r="C89">
         <v>1.417797888386124</v>
@@ -2079,443 +2119,443 @@
         <v>24.4447911790711</v>
       </c>
       <c r="E89">
-        <v>1.246159518376713</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>1.2461595183767129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8837606837606837</v>
+        <v>0.88376068376068373</v>
       </c>
       <c r="C90">
         <v>1.409921233450645</v>
       </c>
       <c r="D90">
-        <v>24.30898678363181</v>
+        <v>24.308986783631809</v>
       </c>
       <c r="E90">
         <v>1.246032953323049</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8869743589743589</v>
+        <v>0.88697435897435895</v>
       </c>
       <c r="C91">
         <v>1.394167923579688</v>
       </c>
       <c r="D91">
-        <v>24.03737799275324</v>
+        <v>24.037377992753239</v>
       </c>
       <c r="E91">
         <v>1.236591200319707</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.8901880341880343</v>
+        <v>0.89018803418803427</v>
       </c>
       <c r="C92">
-        <v>1.38629126864421</v>
+        <v>1.3862912686442099</v>
       </c>
       <c r="D92">
-        <v>23.90157359731396</v>
+        <v>23.901573597313959</v>
       </c>
       <c r="E92">
-        <v>1.234059899246425</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>1.2340598992464249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8917948717948718</v>
+        <v>0.89179487179487182</v>
       </c>
       <c r="C93">
-        <v>1.370537958773253</v>
+        <v>1.3705379587732529</v>
       </c>
       <c r="D93">
-        <v>23.62996480643539</v>
+        <v>23.629964806435389</v>
       </c>
       <c r="E93">
         <v>1.222238723234198</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.895008547008547</v>
+        <v>0.89500854700854704</v>
       </c>
       <c r="C94">
         <v>1.362661303837774</v>
       </c>
       <c r="D94">
-        <v>23.49416041099611</v>
+        <v>23.494160410996109</v>
       </c>
       <c r="E94">
         <v>1.219593513612619</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.8982222222222223</v>
+        <v>0.89822222222222226</v>
       </c>
       <c r="C95">
-        <v>1.354784648902296</v>
+        <v>1.3547846489022961</v>
       </c>
       <c r="D95">
-        <v>23.35835601555682</v>
+        <v>23.358356015556819</v>
       </c>
       <c r="E95">
         <v>1.216897677969573</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8998290598290599</v>
+        <v>0.89982905982905992</v>
       </c>
       <c r="C96">
         <v>1.346907993966818</v>
       </c>
       <c r="D96">
-        <v>23.22255162011754</v>
+        <v>23.222551620117539</v>
       </c>
       <c r="E96">
-        <v>1.211986953887407</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>1.2119869538874071</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.903042735042735</v>
+        <v>0.90304273504273502</v>
       </c>
       <c r="C97">
-        <v>1.339031339031339</v>
+        <v>1.3390313390313391</v>
       </c>
       <c r="D97">
-        <v>23.08674722467826</v>
+        <v>23.086747224678259</v>
       </c>
       <c r="E97">
         <v>1.209202522706796</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9046495726495727</v>
+        <v>0.90464957264957269</v>
       </c>
       <c r="C98">
         <v>1.315401374224904</v>
       </c>
       <c r="D98">
-        <v>22.67933403836041</v>
+        <v>22.679334038360409</v>
       </c>
       <c r="E98">
         <v>1.18997729105522</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9094700854700856</v>
+        <v>0.90947008547008557</v>
       </c>
       <c r="C99">
         <v>1.291771409418468</v>
       </c>
       <c r="D99">
-        <v>22.27192085204256</v>
+        <v>22.271920852042559</v>
       </c>
       <c r="E99">
         <v>1.174827454131627</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9110769230769231</v>
+        <v>0.91107692307692312</v>
       </c>
       <c r="C100">
         <v>1.276018099547511</v>
       </c>
       <c r="D100">
-        <v>22.00031206116399</v>
+        <v>22.000312061163989</v>
       </c>
       <c r="E100">
         <v>1.162550643926209</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9126837606837607</v>
+        <v>0.91268376068376067</v>
       </c>
       <c r="C101">
         <v>1.260264789676554</v>
       </c>
       <c r="D101">
-        <v>21.72870327028541</v>
+        <v>21.728703270285411</v>
       </c>
       <c r="E101">
         <v>1.150223207699326</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.9175042735042734</v>
+        <v>0.91750427350427344</v>
       </c>
       <c r="C102">
-        <v>1.244511479805598</v>
+        <v>1.2445114798055981</v>
       </c>
       <c r="D102">
-        <v>21.45709447940686</v>
+        <v>21.457094479406859</v>
       </c>
       <c r="E102">
-        <v>1.141844601146763</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>1.1418446011467629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9191111111111112</v>
+        <v>0.91911111111111121</v>
       </c>
       <c r="C103">
-        <v>1.236634824870119</v>
+        <v>1.2366348248701191</v>
       </c>
       <c r="D103">
-        <v>21.32129008396756</v>
+        <v>21.321290083967561</v>
       </c>
       <c r="E103">
         <v>1.136604807925069</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9207179487179488</v>
+        <v>0.92071794871794876</v>
       </c>
       <c r="C104">
-        <v>1.220881514999162</v>
+        <v>1.2208815149991621</v>
       </c>
       <c r="D104">
-        <v>21.049681293089</v>
+        <v>21.049681293089002</v>
       </c>
       <c r="E104">
         <v>1.12408752411769</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9223247863247863</v>
+        <v>0.92232478632478632</v>
       </c>
       <c r="C105">
         <v>1.213004860063684</v>
       </c>
       <c r="D105">
-        <v>20.91387689764971</v>
+        <v>20.913876897649711</v>
       </c>
       <c r="E105">
         <v>1.118784448369164</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.923931623931624</v>
+        <v>0.92393162393162398</v>
       </c>
       <c r="C106">
         <v>1.197251550192727</v>
       </c>
       <c r="D106">
-        <v>20.64226810677115</v>
+        <v>20.642268106771152</v>
       </c>
       <c r="E106">
-        <v>1.10617856902422</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>1.1061785690242201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.9271452991452991</v>
+        <v>0.92714529914529908</v>
       </c>
       <c r="C107">
         <v>1.189374895257248</v>
       </c>
       <c r="D107">
-        <v>20.50646371133186</v>
+        <v>20.506463711331861</v>
       </c>
       <c r="E107">
-        <v>1.10272334305919</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>1.1027233430591901</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9271452991452991</v>
+        <v>0.92714529914529908</v>
       </c>
       <c r="C108">
         <v>1.18149824032177</v>
       </c>
       <c r="D108">
-        <v>20.37065931589258</v>
+        <v>20.370659315892581</v>
       </c>
       <c r="E108">
-        <v>1.095420539462772</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>1.0954205394627721</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.9287521367521369</v>
+        <v>0.92875213675213686</v>
       </c>
       <c r="C109">
         <v>1.165744930450813</v>
       </c>
       <c r="D109">
-        <v>20.09905052501401</v>
+        <v>20.099050525014011</v>
       </c>
       <c r="E109">
         <v>1.082688095064164</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.9303589743589744</v>
+        <v>0.93035897435897441</v>
       </c>
       <c r="C110">
         <v>1.165744930450813</v>
       </c>
       <c r="D110">
-        <v>20.09905052501401</v>
+        <v>20.099050525014011</v>
       </c>
       <c r="E110">
-        <v>1.084561257858392</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>1.0845612578583921</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.931965811965812</v>
+        <v>0.93196581196581196</v>
       </c>
       <c r="C111">
-        <v>1.149991620579856</v>
+        <v>1.1499916205798559</v>
       </c>
       <c r="D111">
-        <v>19.82744173413545</v>
+        <v>19.827441734135451</v>
       </c>
       <c r="E111">
         <v>1.071752874427585</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9335726495726496</v>
+        <v>0.93357264957264963</v>
       </c>
       <c r="C112">
         <v>1.142114965644377</v>
       </c>
       <c r="D112">
-        <v>19.69163733869616</v>
+        <v>19.691637338696161</v>
       </c>
       <c r="E112">
-        <v>1.066247294593197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>1.0662472945931969</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.9335726495726496</v>
+        <v>0.93357264957264963</v>
       </c>
       <c r="C113">
-        <v>1.134238310708899</v>
+        <v>1.1342383107088989</v>
       </c>
       <c r="D113">
-        <v>19.55583294325688</v>
+        <v>19.555832943256881</v>
       </c>
       <c r="E113">
         <v>1.058893864975313</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.9351794871794872</v>
+        <v>0.93517948717948718</v>
       </c>
       <c r="C114">
-        <v>1.118485000837942</v>
+        <v>1.1184850008379419</v>
       </c>
       <c r="D114">
-        <v>19.28422415237831</v>
+        <v>19.284224152378311</v>
       </c>
       <c r="E114">
-        <v>1.045984229501575</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>1.0459842295015751</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.9367863247863247</v>
+        <v>0.93678632478632473</v>
       </c>
       <c r="C115">
-        <v>1.110608345902463</v>
+        <v>1.1106083459024629</v>
       </c>
       <c r="D115">
         <v>19.14841975693902</v>
@@ -2524,49 +2564,49 @@
         <v>1.040402710634988</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.9383931623931625</v>
+        <v>0.93839316239316251</v>
       </c>
       <c r="C116">
-        <v>1.102731690966985</v>
+        <v>1.1027316909669851</v>
       </c>
       <c r="D116">
-        <v>19.01261536149974</v>
+        <v>19.012615361499741</v>
       </c>
       <c r="E116">
         <v>1.034795878757669</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9383931623931625</v>
+        <v>0.93839316239316251</v>
       </c>
       <c r="C117">
-        <v>1.086978381096028</v>
+        <v>1.0869783810960281</v>
       </c>
       <c r="D117">
         <v>18.74100657062117</v>
       </c>
       <c r="E117">
-        <v>1.020013080489702</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>1.0200130804897021</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.9400000000000001</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="C118">
-        <v>1.086978381096028</v>
+        <v>1.0869783810960281</v>
       </c>
       <c r="D118">
         <v>18.74100657062117</v>
@@ -2575,29 +2615,29 @@
         <v>1.021759678230266</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.9416068376068376</v>
+        <v>0.94160683760683761</v>
       </c>
       <c r="C119">
         <v>1.07910172616055</v>
       </c>
       <c r="D119">
-        <v>18.60520217518189</v>
+        <v>18.605202175181891</v>
       </c>
       <c r="E119">
-        <v>1.016089563826115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>1.0160895638261149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.9416068376068376</v>
+        <v>0.94160683760683761</v>
       </c>
       <c r="C120">
         <v>1.071225071225071</v>
@@ -2609,46 +2649,46 @@
         <v>1.008672851681399</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.9432136752136753</v>
+        <v>0.94321367521367527</v>
       </c>
       <c r="C121">
         <v>1.055471761354114</v>
       </c>
       <c r="D121">
-        <v>18.19778898886404</v>
+        <v>18.197788988864041</v>
       </c>
       <c r="E121">
-        <v>0.9955353991110655</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>0.99553539911106548</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.9448205128205128</v>
+        <v>0.94482051282051283</v>
       </c>
       <c r="C122">
         <v>1.055471761354114</v>
       </c>
       <c r="D122">
-        <v>18.19778898886404</v>
+        <v>18.197788988864041</v>
       </c>
       <c r="E122">
-        <v>0.9972313708301643</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>0.99723137083016433</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.9464273504273504</v>
+        <v>0.94642735042735038</v>
       </c>
       <c r="C123">
         <v>1.047595106418636</v>
@@ -2657,49 +2697,49 @@
         <v>18.06198459342475</v>
       </c>
       <c r="E123">
-        <v>0.9914726608884475</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>0.99147266088844754</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.9464273504273504</v>
+        <v>0.94642735042735038</v>
       </c>
       <c r="C124">
-        <v>1.031841796547679</v>
+        <v>1.0318417965476789</v>
       </c>
       <c r="D124">
         <v>17.79037580254619</v>
       </c>
       <c r="E124">
-        <v>0.9765632975668169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>0.97656329756681692</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.9464273504273504</v>
+        <v>0.94642735042735038</v>
       </c>
       <c r="C125">
-        <v>1.031841796547679</v>
+        <v>1.0318417965476789</v>
       </c>
       <c r="D125">
         <v>17.79037580254619</v>
       </c>
       <c r="E125">
-        <v>0.9765632975668169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>0.97656329756681692</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.948034188034188</v>
+        <v>0.94803418803418804</v>
       </c>
       <c r="C126">
         <v>1.0239651416122</v>
@@ -2708,10 +2748,10 @@
         <v>17.6545714071069</v>
       </c>
       <c r="E126">
-        <v>0.9707539616036348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>0.97075396160363481</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2719,16 +2759,16 @@
         <v>0.9496410256410257</v>
       </c>
       <c r="C127">
-        <v>1.016088486676722</v>
+        <v>1.0160884866767219</v>
       </c>
       <c r="D127">
         <v>17.51876701166762</v>
       </c>
       <c r="E127">
-        <v>0.9649193126297199</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>0.96491931262971986</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2736,16 +2776,16 @@
         <v>0.9496410256410257</v>
       </c>
       <c r="C128">
-        <v>1.008211831741244</v>
+        <v>1.0082118317412441</v>
       </c>
       <c r="D128">
         <v>17.38296261622834</v>
       </c>
       <c r="E128">
-        <v>0.9574393179581718</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>0.95743931795817183</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2753,203 +2793,203 @@
         <v>0.9496410256410257</v>
       </c>
       <c r="C129">
-        <v>1.008211831741244</v>
+        <v>1.0082118317412441</v>
       </c>
       <c r="D129">
         <v>17.38296261622834</v>
       </c>
       <c r="E129">
-        <v>0.9574393179581718</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>0.95743931795817183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.9576752136752137</v>
+        <v>0.95767521367521369</v>
       </c>
       <c r="C130">
-        <v>0.8428020780961959</v>
+        <v>0.84280207809619589</v>
       </c>
       <c r="D130">
-        <v>14.53107031200338</v>
+        <v>14.531070312003379</v>
       </c>
       <c r="E130">
-        <v>0.8071306602266886</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>0.80713066022668856</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.9657094017094017</v>
+        <v>0.96570940170940167</v>
       </c>
       <c r="C131">
-        <v>0.7088989441930619</v>
+        <v>0.70889894419306188</v>
       </c>
       <c r="D131">
         <v>12.22239558953555</v>
       </c>
       <c r="E131">
-        <v>0.6845903752691083</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>0.68459037526910826</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9737435897435898</v>
+        <v>0.97374358974358977</v>
       </c>
       <c r="C132">
-        <v>0.6065024300318418</v>
+        <v>0.60650243003184179</v>
       </c>
       <c r="D132">
-        <v>10.45693844882486</v>
+        <v>10.456938448824859</v>
       </c>
       <c r="E132">
-        <v>0.590577853407416</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>0.59057785340741598</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.9785641025641026</v>
+        <v>0.97856410256410264</v>
       </c>
       <c r="C133">
-        <v>0.5119825708061002</v>
+        <v>0.51198257080610021</v>
       </c>
       <c r="D133">
-        <v>8.827285703553452</v>
+        <v>8.8272857035534518</v>
       </c>
       <c r="E133">
-        <v>0.5010077649293336</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>0.50100776492933363</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.9833846153846154</v>
+        <v>0.98338461538461541</v>
       </c>
       <c r="C134">
-        <v>0.4332160214513155</v>
+        <v>0.43321602145131549</v>
       </c>
       <c r="D134">
-        <v>7.469241749160613</v>
+        <v>7.4692417491606129</v>
       </c>
       <c r="E134">
-        <v>0.4260179706333552</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>0.42601797063335523</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.9882051282051282</v>
+        <v>0.98820512820512818</v>
       </c>
       <c r="C135">
-        <v>0.3702027819674878</v>
+        <v>0.37020278196748779</v>
       </c>
       <c r="D135">
-        <v>6.382806585646342</v>
+        <v>6.3828065856463416</v>
       </c>
       <c r="E135">
-        <v>0.3658362876160764</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>0.36583628761607639</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.9898119658119658</v>
+        <v>0.98981196581196584</v>
       </c>
       <c r="C136">
-        <v>0.3150661974191385</v>
+        <v>0.31506619741913849</v>
       </c>
       <c r="D136">
-        <v>5.432175817571354</v>
+        <v>5.4321758175713537</v>
       </c>
       <c r="E136">
-        <v>0.3118562922283384</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>0.31185629222833838</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.9946324786324786</v>
+        <v>0.99463247863247861</v>
       </c>
       <c r="C137">
-        <v>0.2678062678062678</v>
+        <v>0.26780626780626782</v>
       </c>
       <c r="D137">
-        <v>4.617349444935651</v>
+        <v>4.6173494449356509</v>
       </c>
       <c r="E137">
-        <v>0.2663688119414614</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>0.26636881194146139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.9962393162393162</v>
+        <v>0.99623931623931616</v>
       </c>
       <c r="C138">
-        <v>0.2284229931288755</v>
+        <v>0.22842299312887551</v>
       </c>
       <c r="D138">
-        <v>3.938327467739232</v>
+        <v>3.9383274677392319</v>
       </c>
       <c r="E138">
-        <v>0.2275639664880489</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>0.22756396648804891</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.9994529914529915</v>
+        <v>0.99945299145299149</v>
       </c>
       <c r="C139">
-        <v>0.1969163733869616</v>
+        <v>0.19691637338696161</v>
       </c>
       <c r="D139">
-        <v>3.395109885982096</v>
+        <v>3.3951098859820958</v>
       </c>
       <c r="E139">
-        <v>0.196808658447673</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>0.19680865844767301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.001059829059829</v>
+        <v>1.0010598290598289</v>
       </c>
       <c r="C140">
-        <v>0.1654097536450478</v>
+        <v>0.16540975364504781</v>
       </c>
       <c r="D140">
-        <v>2.851892304224961</v>
+        <v>2.8518923042249611</v>
       </c>
       <c r="E140">
-        <v>0.16558505970874</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>0.16558505970873999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -2957,16 +2997,16 @@
         <v>1.002666666666667</v>
       </c>
       <c r="C141">
-        <v>0.1417797888386124</v>
+        <v>0.14177978883861239</v>
       </c>
       <c r="D141">
-        <v>2.44447911790711</v>
+        <v>2.4444791179071101</v>
       </c>
       <c r="E141">
         <v>0.1421578682755153</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -2977,18 +3017,18 @@
         <v>0.118149824032177</v>
       </c>
       <c r="D142">
-        <v>2.037065931589258</v>
+        <v>2.0370659315892579</v>
       </c>
       <c r="E142">
         <v>0.1186547378100923</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.005880341880342</v>
+        <v>1.0058803418803419</v>
       </c>
       <c r="C143">
         <v>0.1023965141612201</v>
@@ -2997,44 +3037,44 @@
         <v>1.76545714071069</v>
       </c>
       <c r="E143">
-        <v>0.1029986406718433</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>0.10299864067184331</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.007487179487179</v>
+        <v>1.0074871794871789</v>
       </c>
       <c r="C144">
-        <v>0.09451985922574158</v>
+        <v>9.4519859225741576E-2</v>
       </c>
       <c r="D144">
         <v>1.629652745271406</v>
       </c>
       <c r="E144">
-        <v>0.09522754637686763</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>9.5227546376867631E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.007487179487179</v>
+        <v>1.0074871794871789</v>
       </c>
       <c r="C145">
-        <v>0.07876654935478464</v>
+        <v>7.8766549354784637E-2</v>
       </c>
       <c r="D145">
         <v>1.358043954392838</v>
       </c>
       <c r="E145">
-        <v>0.07935628864738968</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>7.9356288647389681E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3042,101 +3082,101 @@
         <v>1.009094017094017</v>
       </c>
       <c r="C146">
-        <v>0.06301323948382773</v>
+        <v>6.3013239483827727E-2</v>
       </c>
       <c r="D146">
-        <v>1.086435163514271</v>
+        <v>1.0864351635142711</v>
       </c>
       <c r="E146">
-        <v>0.06358628296084304</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>6.3586282960843038E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.010700854700855</v>
+        <v>1.0107008547008549</v>
       </c>
       <c r="C147">
-        <v>0.05513658454834925</v>
+        <v>5.513658454834925E-2</v>
       </c>
       <c r="D147">
-        <v>0.950630768074987</v>
+        <v>0.95063076807498703</v>
       </c>
       <c r="E147">
-        <v>0.05572659312830253</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>5.5726593128302533E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.010700854700855</v>
+        <v>1.0107008547008549</v>
       </c>
       <c r="C148">
-        <v>0.04725992961287079</v>
+        <v>4.7259929612870788E-2</v>
       </c>
       <c r="D148">
-        <v>0.8148263726357032</v>
+        <v>0.81482637263570323</v>
       </c>
       <c r="E148">
-        <v>0.04776565125283073</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>4.7765651252830728E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.012307692307692</v>
+        <v>1.0123076923076919</v>
       </c>
       <c r="C149">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D149">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E149">
-        <v>0.03986799190419098</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>3.9867991904190977E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.012307692307692</v>
+        <v>1.0123076923076919</v>
       </c>
       <c r="C150">
-        <v>0.03938327467739232</v>
+        <v>3.9383274677392319E-2</v>
       </c>
       <c r="D150">
-        <v>0.6790219771964192</v>
+        <v>0.67902197719641921</v>
       </c>
       <c r="E150">
-        <v>0.03986799190419098</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>3.9867991904190977E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.012307692307692</v>
+        <v>1.0123076923076919</v>
       </c>
       <c r="C151">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D151">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E151">
-        <v>0.0318943935233528</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>3.1894393523352799E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3144,16 +3184,16 @@
         <v>1.01391452991453</v>
       </c>
       <c r="C152">
-        <v>0.03150661974191386</v>
+        <v>3.1506619741913863E-2</v>
       </c>
       <c r="D152">
-        <v>0.5432175817571355</v>
+        <v>0.54321758175713553</v>
       </c>
       <c r="E152">
-        <v>0.03194501954481845</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>3.1945019544818452E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3161,16 +3201,16 @@
         <v>1.01391452991453</v>
       </c>
       <c r="C153">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D153">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E153">
-        <v>0.02395876465861383</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>2.3958764658613831E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3178,16 +3218,16 @@
         <v>1.01391452991453</v>
       </c>
       <c r="C154">
-        <v>0.02362996480643539</v>
+        <v>2.3629964806435391E-2</v>
       </c>
       <c r="D154">
-        <v>0.4074131863178516</v>
+        <v>0.40741318631785162</v>
       </c>
       <c r="E154">
-        <v>0.02395876465861383</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>2.3958764658613831E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3195,16 +3235,16 @@
         <v>1.01391452991453</v>
       </c>
       <c r="C155">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D155">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E155">
-        <v>0.01597250977240922</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>1.5972509772409219E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3212,50 +3252,50 @@
         <v>1.01391452991453</v>
       </c>
       <c r="C156">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D156">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E156">
-        <v>0.01597250977240922</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>1.5972509772409219E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.015521367521368</v>
+        <v>1.0155213675213679</v>
       </c>
       <c r="C157">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D157">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E157">
-        <v>0.01599782278314204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>1.5997822783142039E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.015521367521368</v>
+        <v>1.0155213675213679</v>
       </c>
       <c r="C158">
-        <v>0.01575330987095693</v>
+        <v>1.5753309870956932E-2</v>
       </c>
       <c r="D158">
-        <v>0.2716087908785678</v>
+        <v>0.27160879087856782</v>
       </c>
       <c r="E158">
-        <v>0.01599782278314204</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>1.5997822783142039E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3263,157 +3303,157 @@
         <v>1.01391452991453</v>
       </c>
       <c r="C159">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D159">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E159">
-        <v>0.007986254886204611</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>7.9862548862046114E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.015521367521368</v>
+        <v>1.0155213675213679</v>
       </c>
       <c r="C160">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D160">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E160">
-        <v>0.007998911391571021</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>7.9989113915710213E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.015521367521368</v>
+        <v>1.0155213675213679</v>
       </c>
       <c r="C161">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D161">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E161">
-        <v>0.007998911391571021</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>7.9989113915710213E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.015521367521368</v>
+        <v>1.0155213675213679</v>
       </c>
       <c r="C162">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D162">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E162">
-        <v>0.007998911391571021</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>7.9989113915710213E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.015521367521368</v>
+        <v>1.0155213675213679</v>
       </c>
       <c r="C163">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D163">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E163">
-        <v>0.007998911391571021</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>7.9989113915710213E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C164">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D164">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E164">
-        <v>0.00801156789693743</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>8.0115678969374295E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C165">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D165">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E165">
-        <v>0.00801156789693743</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>8.0115678969374295E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C166">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D166">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E166">
-        <v>0.00801156789693743</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>8.0115678969374295E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C167">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D167">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E167">
-        <v>0.00801156789693743</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>8.0115678969374295E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3425,29 +3465,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C169">
-        <v>0.007876654935478466</v>
+        <v>7.8766549354784658E-3</v>
       </c>
       <c r="D169">
-        <v>0.1358043954392839</v>
+        <v>0.13580439543928391</v>
       </c>
       <c r="E169">
-        <v>0.00801156789693743</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>8.0115678969374295E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3459,12 +3499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3476,12 +3516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3493,12 +3533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3510,12 +3550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3527,12 +3567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3544,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3561,12 +3601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3578,12 +3618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3595,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3612,12 +3652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3629,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -3646,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -3663,12 +3703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3680,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -3697,12 +3737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.017128205128205</v>
+        <v>1.0171282051282049</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3714,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -3731,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -3748,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -3765,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -3782,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -3799,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -3816,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -3833,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -3850,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -3867,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -3884,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -3901,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -3918,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -3935,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -3952,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -3969,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -3986,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4003,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4020,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4037,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4054,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4071,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4088,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4105,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4122,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4139,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4156,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4173,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4190,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4207,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4224,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4241,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4258,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4275,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4292,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4309,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4326,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4343,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4360,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4377,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4394,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4411,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4428,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4445,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4462,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4479,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -4496,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -4513,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -4530,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -4547,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -4564,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -4581,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -4598,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -4615,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -4632,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -4649,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -4666,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -4683,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -4700,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -4717,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -4734,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -4751,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -4768,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -4785,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -4802,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -4819,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -4836,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -4853,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -4870,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -4887,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -4904,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -4921,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
